--- a/华数杯/dataset/demo_train.xlsx
+++ b/华数杯/dataset/demo_train.xlsx
@@ -8960,7 +8960,9 @@
       <c r="L181" t="n">
         <v>3</v>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N181" t="n">
         <v>0</v>
       </c>
@@ -18873,7 +18875,9 @@
       <c r="L392" t="n">
         <v>3</v>
       </c>
-      <c r="M392" t="inlineStr"/>
+      <c r="M392" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
     </row>
@@ -18912,7 +18916,9 @@
       <c r="L393" t="n">
         <v>3</v>
       </c>
-      <c r="M393" t="inlineStr"/>
+      <c r="M393" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
     </row>
@@ -18951,7 +18957,9 @@
       <c r="L394" t="n">
         <v>3</v>
       </c>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
     </row>
@@ -18990,7 +18998,9 @@
       <c r="L395" t="n">
         <v>2</v>
       </c>
-      <c r="M395" t="inlineStr"/>
+      <c r="M395" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
     </row>
@@ -19029,7 +19039,9 @@
       <c r="L396" t="n">
         <v>2</v>
       </c>
-      <c r="M396" t="inlineStr"/>
+      <c r="M396" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
     </row>
@@ -19068,7 +19080,9 @@
       <c r="L397" t="n">
         <v>3</v>
       </c>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
     </row>
@@ -19107,7 +19121,9 @@
       <c r="L398" t="n">
         <v>1</v>
       </c>
-      <c r="M398" t="inlineStr"/>
+      <c r="M398" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
     </row>
@@ -19146,7 +19162,9 @@
       <c r="L399" t="n">
         <v>3</v>
       </c>
-      <c r="M399" t="inlineStr"/>
+      <c r="M399" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
     </row>
@@ -19185,7 +19203,9 @@
       <c r="L400" t="n">
         <v>1</v>
       </c>
-      <c r="M400" t="inlineStr"/>
+      <c r="M400" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr"/>
     </row>
@@ -19224,7 +19244,9 @@
       <c r="L401" t="n">
         <v>1</v>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
     </row>
@@ -19263,7 +19285,9 @@
       <c r="L402" t="n">
         <v>1</v>
       </c>
-      <c r="M402" t="inlineStr"/>
+      <c r="M402" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr"/>
     </row>
@@ -19302,7 +19326,9 @@
       <c r="L403" t="n">
         <v>3</v>
       </c>
-      <c r="M403" t="inlineStr"/>
+      <c r="M403" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
     </row>
@@ -19341,7 +19367,9 @@
       <c r="L404" t="n">
         <v>3</v>
       </c>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
     </row>
@@ -19380,7 +19408,9 @@
       <c r="L405" t="n">
         <v>1</v>
       </c>
-      <c r="M405" t="inlineStr"/>
+      <c r="M405" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr"/>
     </row>
@@ -19419,7 +19449,9 @@
       <c r="L406" t="n">
         <v>3</v>
       </c>
-      <c r="M406" t="inlineStr"/>
+      <c r="M406" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr"/>
     </row>
@@ -19458,7 +19490,9 @@
       <c r="L407" t="n">
         <v>2</v>
       </c>
-      <c r="M407" t="inlineStr"/>
+      <c r="M407" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
     </row>
@@ -19497,7 +19531,9 @@
       <c r="L408" t="n">
         <v>2</v>
       </c>
-      <c r="M408" t="inlineStr"/>
+      <c r="M408" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
     </row>
@@ -19536,7 +19572,9 @@
       <c r="L409" t="n">
         <v>1</v>
       </c>
-      <c r="M409" t="inlineStr"/>
+      <c r="M409" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
     </row>
@@ -19575,7 +19613,9 @@
       <c r="L410" t="n">
         <v>1</v>
       </c>
-      <c r="M410" t="inlineStr"/>
+      <c r="M410" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
     </row>
@@ -19614,7 +19654,9 @@
       <c r="L411" t="n">
         <v>2</v>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="n">
+        <v>39.1735294117647</v>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
     </row>

--- a/华数杯/dataset/demo_train.xlsx
+++ b/华数杯/dataset/demo_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\modeling\华数杯\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B429E95-5CF3-48F1-9AA0-044DB7E94AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61065FD-F6E3-4F8A-921B-676831F30A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>入睡方式</t>
+  </si>
+  <si>
+    <t>分档等级</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O411"/>
+  <dimension ref="A1:P411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="N396" sqref="N396"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -446,7 +449,7 @@
     <col min="13" max="13" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +495,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="O2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,8 +595,11 @@
       <c r="O3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -633,8 +645,11 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -680,8 +695,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -727,8 +745,11 @@
       <c r="O6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -774,8 +795,11 @@
       <c r="O7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -821,8 +845,11 @@
       <c r="O8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -868,8 +895,11 @@
       <c r="O9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,8 +945,11 @@
       <c r="O10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -962,8 +995,11 @@
       <c r="O11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1009,8 +1045,11 @@
       <c r="O12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1056,8 +1095,11 @@
       <c r="O13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1103,8 +1145,11 @@
       <c r="O14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="O15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1197,8 +1245,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1244,8 +1295,11 @@
       <c r="O17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1291,8 +1345,11 @@
       <c r="O18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1338,8 +1395,11 @@
       <c r="O19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1385,8 +1445,11 @@
       <c r="O20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1432,8 +1495,11 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1479,8 +1545,11 @@
       <c r="O22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1526,8 +1595,11 @@
       <c r="O23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1573,8 +1645,11 @@
       <c r="O24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1620,8 +1695,11 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1667,8 +1745,11 @@
       <c r="O26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1714,8 +1795,11 @@
       <c r="O27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1761,8 +1845,11 @@
       <c r="O28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1808,8 +1895,11 @@
       <c r="O29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1855,8 +1945,11 @@
       <c r="O30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1902,8 +1995,11 @@
       <c r="O31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1949,8 +2045,11 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1996,8 +2095,11 @@
       <c r="O33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2043,8 +2145,11 @@
       <c r="O34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2090,8 +2195,11 @@
       <c r="O35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2137,8 +2245,11 @@
       <c r="O36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2184,8 +2295,11 @@
       <c r="O37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2231,8 +2345,11 @@
       <c r="O38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2278,8 +2395,11 @@
       <c r="O39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2325,8 +2445,11 @@
       <c r="O40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2372,8 +2495,11 @@
       <c r="O41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2419,8 +2545,11 @@
       <c r="O42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2466,8 +2595,11 @@
       <c r="O43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2513,8 +2645,11 @@
       <c r="O44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2560,8 +2695,11 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2607,8 +2745,11 @@
       <c r="O46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2654,8 +2795,11 @@
       <c r="O47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2701,8 +2845,11 @@
       <c r="O48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2748,8 +2895,11 @@
       <c r="O49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2795,8 +2945,11 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2842,8 +2995,11 @@
       <c r="O51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2889,8 +3045,11 @@
       <c r="O52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2936,8 +3095,11 @@
       <c r="O53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2983,8 +3145,11 @@
       <c r="O54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3030,8 +3195,11 @@
       <c r="O55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3077,8 +3245,11 @@
       <c r="O56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3124,8 +3295,11 @@
       <c r="O57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3171,8 +3345,11 @@
       <c r="O58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3218,8 +3395,11 @@
       <c r="O59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3265,8 +3445,11 @@
       <c r="O60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3312,8 +3495,11 @@
       <c r="O61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3359,8 +3545,11 @@
       <c r="O62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3406,8 +3595,11 @@
       <c r="O63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3453,8 +3645,11 @@
       <c r="O64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3500,8 +3695,11 @@
       <c r="O65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3547,8 +3745,11 @@
       <c r="O66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3594,8 +3795,11 @@
       <c r="O67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3641,8 +3845,11 @@
       <c r="O68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3688,8 +3895,11 @@
       <c r="O69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3735,8 +3945,11 @@
       <c r="O70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3782,8 +3995,11 @@
       <c r="O71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3829,8 +4045,11 @@
       <c r="O72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3876,8 +4095,11 @@
       <c r="O73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3923,8 +4145,11 @@
       <c r="O74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3970,8 +4195,11 @@
       <c r="O75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4017,8 +4245,11 @@
       <c r="O76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4064,8 +4295,11 @@
       <c r="O77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4111,8 +4345,11 @@
       <c r="O78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4158,8 +4395,11 @@
       <c r="O79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4205,8 +4445,11 @@
       <c r="O80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4252,8 +4495,11 @@
       <c r="O81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4299,8 +4545,11 @@
       <c r="O82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4346,8 +4595,11 @@
       <c r="O83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4393,8 +4645,11 @@
       <c r="O84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4440,8 +4695,11 @@
       <c r="O85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4487,8 +4745,11 @@
       <c r="O86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4534,8 +4795,11 @@
       <c r="O87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4581,8 +4845,11 @@
       <c r="O88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4628,8 +4895,11 @@
       <c r="O89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4675,8 +4945,11 @@
       <c r="O90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4722,8 +4995,11 @@
       <c r="O91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4769,8 +5045,11 @@
       <c r="O92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4816,8 +5095,11 @@
       <c r="O93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4863,8 +5145,11 @@
       <c r="O94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4910,8 +5195,11 @@
       <c r="O95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4957,8 +5245,11 @@
       <c r="O96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5004,8 +5295,11 @@
       <c r="O97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5051,8 +5345,11 @@
       <c r="O98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5098,8 +5395,11 @@
       <c r="O99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5145,8 +5445,11 @@
       <c r="O100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5192,8 +5495,11 @@
       <c r="O101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5239,8 +5545,11 @@
       <c r="O102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5286,8 +5595,11 @@
       <c r="O103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5333,8 +5645,11 @@
       <c r="O104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5380,8 +5695,11 @@
       <c r="O105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5427,8 +5745,11 @@
       <c r="O106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5474,8 +5795,11 @@
       <c r="O107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5521,8 +5845,11 @@
       <c r="O108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5568,8 +5895,11 @@
       <c r="O109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5615,8 +5945,11 @@
       <c r="O110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5662,8 +5995,11 @@
       <c r="O111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5709,8 +6045,11 @@
       <c r="O112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5756,8 +6095,11 @@
       <c r="O113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5803,8 +6145,11 @@
       <c r="O114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5850,8 +6195,11 @@
       <c r="O115">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5897,8 +6245,11 @@
       <c r="O116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5944,8 +6295,11 @@
       <c r="O117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5991,8 +6345,11 @@
       <c r="O118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6038,8 +6395,11 @@
       <c r="O119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6085,8 +6445,11 @@
       <c r="O120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6132,8 +6495,11 @@
       <c r="O121">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6179,8 +6545,11 @@
       <c r="O122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6226,8 +6595,11 @@
       <c r="O123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6273,8 +6645,11 @@
       <c r="O124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6320,8 +6695,11 @@
       <c r="O125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6367,8 +6745,11 @@
       <c r="O126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6414,8 +6795,11 @@
       <c r="O127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6461,8 +6845,11 @@
       <c r="O128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6508,8 +6895,11 @@
       <c r="O129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6555,8 +6945,11 @@
       <c r="O130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6602,8 +6995,11 @@
       <c r="O131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6649,8 +7045,11 @@
       <c r="O132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6696,8 +7095,11 @@
       <c r="O133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6743,8 +7145,11 @@
       <c r="O134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6790,8 +7195,11 @@
       <c r="O135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6837,8 +7245,11 @@
       <c r="O136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6884,8 +7295,11 @@
       <c r="O137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6931,8 +7345,11 @@
       <c r="O138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6978,8 +7395,11 @@
       <c r="O139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7025,8 +7445,11 @@
       <c r="O140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7072,8 +7495,11 @@
       <c r="O141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7119,8 +7545,11 @@
       <c r="O142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7166,8 +7595,11 @@
       <c r="O143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7213,8 +7645,11 @@
       <c r="O144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7260,8 +7695,11 @@
       <c r="O145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7307,8 +7745,11 @@
       <c r="O146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7354,8 +7795,11 @@
       <c r="O147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7401,8 +7845,11 @@
       <c r="O148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7448,8 +7895,11 @@
       <c r="O149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7495,8 +7945,11 @@
       <c r="O150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7542,8 +7995,11 @@
       <c r="O151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7589,8 +8045,11 @@
       <c r="O152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7636,8 +8095,11 @@
       <c r="O153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7683,8 +8145,11 @@
       <c r="O154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7730,8 +8195,11 @@
       <c r="O155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7777,8 +8245,11 @@
       <c r="O156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7824,8 +8295,11 @@
       <c r="O157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7871,8 +8345,11 @@
       <c r="O158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7918,8 +8395,11 @@
       <c r="O159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7965,8 +8445,11 @@
       <c r="O160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8012,8 +8495,11 @@
       <c r="O161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8059,8 +8545,11 @@
       <c r="O162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8106,8 +8595,11 @@
       <c r="O163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8153,8 +8645,11 @@
       <c r="O164">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8200,8 +8695,11 @@
       <c r="O165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8247,8 +8745,11 @@
       <c r="O166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8294,8 +8795,11 @@
       <c r="O167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8341,8 +8845,11 @@
       <c r="O168">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8388,8 +8895,11 @@
       <c r="O169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8435,8 +8945,11 @@
       <c r="O170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8482,8 +8995,11 @@
       <c r="O171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8529,8 +9045,11 @@
       <c r="O172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8576,8 +9095,11 @@
       <c r="O173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8623,8 +9145,11 @@
       <c r="O174">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8670,8 +9195,11 @@
       <c r="O175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8717,8 +9245,11 @@
       <c r="O176">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8764,8 +9295,11 @@
       <c r="O177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8811,8 +9345,11 @@
       <c r="O178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8858,8 +9395,11 @@
       <c r="O179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8905,8 +9445,11 @@
       <c r="O180">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8952,8 +9495,11 @@
       <c r="O181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8999,8 +9545,11 @@
       <c r="O182">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9046,8 +9595,11 @@
       <c r="O183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9093,8 +9645,11 @@
       <c r="O184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9140,8 +9695,11 @@
       <c r="O185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9187,8 +9745,11 @@
       <c r="O186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9234,8 +9795,11 @@
       <c r="O187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9281,8 +9845,11 @@
       <c r="O188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9328,8 +9895,11 @@
       <c r="O189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9375,8 +9945,11 @@
       <c r="O190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9422,8 +9995,11 @@
       <c r="O191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9469,8 +10045,11 @@
       <c r="O192">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9516,8 +10095,11 @@
       <c r="O193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9563,8 +10145,11 @@
       <c r="O194">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9610,8 +10195,11 @@
       <c r="O195">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9657,8 +10245,11 @@
       <c r="O196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9704,8 +10295,11 @@
       <c r="O197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9751,8 +10345,11 @@
       <c r="O198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9798,8 +10395,11 @@
       <c r="O199">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9845,8 +10445,11 @@
       <c r="O200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9892,8 +10495,11 @@
       <c r="O201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9939,8 +10545,11 @@
       <c r="O202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9986,8 +10595,11 @@
       <c r="O203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10033,8 +10645,11 @@
       <c r="O204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10080,8 +10695,11 @@
       <c r="O205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10127,8 +10745,11 @@
       <c r="O206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10174,8 +10795,11 @@
       <c r="O207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10221,8 +10845,11 @@
       <c r="O208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10268,8 +10895,11 @@
       <c r="O209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10315,8 +10945,11 @@
       <c r="O210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10362,8 +10995,11 @@
       <c r="O211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10409,8 +11045,11 @@
       <c r="O212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10456,8 +11095,11 @@
       <c r="O213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10503,8 +11145,11 @@
       <c r="O214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10550,8 +11195,11 @@
       <c r="O215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10597,8 +11245,11 @@
       <c r="O216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10644,8 +11295,11 @@
       <c r="O217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10691,8 +11345,11 @@
       <c r="O218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10738,8 +11395,11 @@
       <c r="O219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10785,8 +11445,11 @@
       <c r="O220">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10832,8 +11495,11 @@
       <c r="O221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10879,8 +11545,11 @@
       <c r="O222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10926,8 +11595,11 @@
       <c r="O223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10973,8 +11645,11 @@
       <c r="O224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11020,8 +11695,11 @@
       <c r="O225">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11067,8 +11745,11 @@
       <c r="O226">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11114,8 +11795,11 @@
       <c r="O227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11161,8 +11845,11 @@
       <c r="O228">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11208,8 +11895,11 @@
       <c r="O229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11255,8 +11945,11 @@
       <c r="O230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11302,8 +11995,11 @@
       <c r="O231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11349,8 +12045,11 @@
       <c r="O232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11396,8 +12095,11 @@
       <c r="O233">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11443,8 +12145,11 @@
       <c r="O234">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11490,8 +12195,11 @@
       <c r="O235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11537,8 +12245,11 @@
       <c r="O236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11584,8 +12295,11 @@
       <c r="O237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11631,8 +12345,11 @@
       <c r="O238">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11678,8 +12395,11 @@
       <c r="O239">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11725,8 +12445,11 @@
       <c r="O240">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11772,8 +12495,11 @@
       <c r="O241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11819,8 +12545,11 @@
       <c r="O242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11866,8 +12595,11 @@
       <c r="O243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11913,8 +12645,11 @@
       <c r="O244">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11960,8 +12695,11 @@
       <c r="O245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12007,8 +12745,11 @@
       <c r="O246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12054,8 +12795,11 @@
       <c r="O247">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12101,8 +12845,11 @@
       <c r="O248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12148,8 +12895,11 @@
       <c r="O249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12195,8 +12945,11 @@
       <c r="O250">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12242,8 +12995,11 @@
       <c r="O251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12289,8 +13045,11 @@
       <c r="O252">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12336,8 +13095,11 @@
       <c r="O253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12383,8 +13145,11 @@
       <c r="O254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12430,8 +13195,11 @@
       <c r="O255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12477,8 +13245,11 @@
       <c r="O256">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12524,8 +13295,11 @@
       <c r="O257">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12571,8 +13345,11 @@
       <c r="O258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12618,8 +13395,11 @@
       <c r="O259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12665,8 +13445,11 @@
       <c r="O260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12712,8 +13495,11 @@
       <c r="O261">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12759,8 +13545,11 @@
       <c r="O262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12806,8 +13595,11 @@
       <c r="O263">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12853,8 +13645,11 @@
       <c r="O264">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12900,8 +13695,11 @@
       <c r="O265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12947,8 +13745,11 @@
       <c r="O266">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12994,8 +13795,11 @@
       <c r="O267">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13041,8 +13845,11 @@
       <c r="O268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13088,8 +13895,11 @@
       <c r="O269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13135,8 +13945,11 @@
       <c r="O270">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13182,8 +13995,11 @@
       <c r="O271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13229,8 +14045,11 @@
       <c r="O272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13276,8 +14095,11 @@
       <c r="O273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13323,8 +14145,11 @@
       <c r="O274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13370,8 +14195,11 @@
       <c r="O275">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13417,8 +14245,11 @@
       <c r="O276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13464,8 +14295,11 @@
       <c r="O277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13511,8 +14345,11 @@
       <c r="O278">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13558,8 +14395,11 @@
       <c r="O279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13605,8 +14445,11 @@
       <c r="O280">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13652,8 +14495,11 @@
       <c r="O281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13699,8 +14545,11 @@
       <c r="O282">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13746,8 +14595,11 @@
       <c r="O283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13793,8 +14645,11 @@
       <c r="O284">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13840,8 +14695,11 @@
       <c r="O285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13887,8 +14745,11 @@
       <c r="O286">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13934,8 +14795,11 @@
       <c r="O287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13981,8 +14845,11 @@
       <c r="O288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14028,8 +14895,11 @@
       <c r="O289">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14075,8 +14945,11 @@
       <c r="O290">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14122,8 +14995,11 @@
       <c r="O291">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14169,8 +15045,11 @@
       <c r="O292">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14216,8 +15095,11 @@
       <c r="O293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14263,8 +15145,11 @@
       <c r="O294">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14310,8 +15195,11 @@
       <c r="O295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14357,8 +15245,11 @@
       <c r="O296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14404,8 +15295,11 @@
       <c r="O297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14451,8 +15345,11 @@
       <c r="O298">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14498,8 +15395,11 @@
       <c r="O299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14545,8 +15445,11 @@
       <c r="O300">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14592,8 +15495,11 @@
       <c r="O301">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14639,8 +15545,11 @@
       <c r="O302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14686,8 +15595,11 @@
       <c r="O303">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14733,8 +15645,11 @@
       <c r="O304">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14780,8 +15695,11 @@
       <c r="O305">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14827,8 +15745,11 @@
       <c r="O306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14874,8 +15795,11 @@
       <c r="O307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14921,8 +15845,11 @@
       <c r="O308">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14968,8 +15895,11 @@
       <c r="O309">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15015,8 +15945,11 @@
       <c r="O310">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15062,8 +15995,11 @@
       <c r="O311">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15109,8 +16045,11 @@
       <c r="O312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15156,8 +16095,11 @@
       <c r="O313">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15203,8 +16145,11 @@
       <c r="O314">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15250,8 +16195,11 @@
       <c r="O315">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15297,8 +16245,11 @@
       <c r="O316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15344,8 +16295,11 @@
       <c r="O317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15391,8 +16345,11 @@
       <c r="O318">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15438,8 +16395,11 @@
       <c r="O319">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15485,8 +16445,11 @@
       <c r="O320">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15532,8 +16495,11 @@
       <c r="O321">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15579,8 +16545,11 @@
       <c r="O322">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15626,8 +16595,11 @@
       <c r="O323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15673,8 +16645,11 @@
       <c r="O324">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15720,8 +16695,11 @@
       <c r="O325">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15767,8 +16745,11 @@
       <c r="O326">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15814,8 +16795,11 @@
       <c r="O327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15861,8 +16845,11 @@
       <c r="O328">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15908,8 +16895,11 @@
       <c r="O329">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15955,8 +16945,11 @@
       <c r="O330">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16002,8 +16995,11 @@
       <c r="O331">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16049,8 +17045,11 @@
       <c r="O332">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16096,8 +17095,11 @@
       <c r="O333">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16143,8 +17145,11 @@
       <c r="O334">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16190,8 +17195,11 @@
       <c r="O335">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16237,8 +17245,11 @@
       <c r="O336">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16284,8 +17295,11 @@
       <c r="O337">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16331,8 +17345,11 @@
       <c r="O338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16378,8 +17395,11 @@
       <c r="O339">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16425,8 +17445,11 @@
       <c r="O340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16472,8 +17495,11 @@
       <c r="O341">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16519,8 +17545,11 @@
       <c r="O342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16566,8 +17595,11 @@
       <c r="O343">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16613,8 +17645,11 @@
       <c r="O344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16660,8 +17695,11 @@
       <c r="O345">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16707,8 +17745,11 @@
       <c r="O346">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16754,8 +17795,11 @@
       <c r="O347">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16801,8 +17845,11 @@
       <c r="O348">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16848,8 +17895,11 @@
       <c r="O349">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16895,8 +17945,11 @@
       <c r="O350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16942,8 +17995,11 @@
       <c r="O351">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16989,8 +18045,11 @@
       <c r="O352">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17036,8 +18095,11 @@
       <c r="O353">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17083,8 +18145,11 @@
       <c r="O354">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17130,8 +18195,11 @@
       <c r="O355">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17177,8 +18245,11 @@
       <c r="O356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17224,8 +18295,11 @@
       <c r="O357">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17271,8 +18345,11 @@
       <c r="O358">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17318,8 +18395,11 @@
       <c r="O359">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17365,8 +18445,11 @@
       <c r="O360">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17412,8 +18495,11 @@
       <c r="O361">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17459,8 +18545,11 @@
       <c r="O362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17506,8 +18595,11 @@
       <c r="O363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17553,8 +18645,11 @@
       <c r="O364">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17600,8 +18695,11 @@
       <c r="O365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17647,8 +18745,11 @@
       <c r="O366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17694,8 +18795,11 @@
       <c r="O367">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17741,8 +18845,11 @@
       <c r="O368">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17788,8 +18895,11 @@
       <c r="O369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17835,8 +18945,11 @@
       <c r="O370">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17882,8 +18995,11 @@
       <c r="O371">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17929,8 +19045,11 @@
       <c r="O372">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17976,8 +19095,11 @@
       <c r="O373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -18023,8 +19145,11 @@
       <c r="O374">
         <v>2</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -18070,8 +19195,11 @@
       <c r="O375">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18117,8 +19245,11 @@
       <c r="O376">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18164,8 +19295,11 @@
       <c r="O377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18211,8 +19345,11 @@
       <c r="O378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18258,8 +19395,11 @@
       <c r="O379">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18305,8 +19445,11 @@
       <c r="O380">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18352,8 +19495,11 @@
       <c r="O381">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18399,8 +19545,11 @@
       <c r="O382">
         <v>5</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18446,8 +19595,11 @@
       <c r="O383">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18493,8 +19645,11 @@
       <c r="O384">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18540,8 +19695,11 @@
       <c r="O385">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -18587,8 +19745,11 @@
       <c r="O386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18634,8 +19795,11 @@
       <c r="O387">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18681,8 +19845,11 @@
       <c r="O388">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18728,8 +19895,11 @@
       <c r="O389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18775,8 +19945,11 @@
       <c r="O390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18822,8 +19995,11 @@
       <c r="O391">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18858,7 +20034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18893,7 +20069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18928,7 +20104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18963,7 +20139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18998,7 +20174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -19033,7 +20209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -19068,7 +20244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -19103,7 +20279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
